--- a/data/trans_orig/P1801-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1801-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1CE7801-D808-40EA-9B61-E5171036A147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{627AD194-8E0D-4CBD-87D9-C1CB341DCFE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1332A8D0-E6B2-4339-95D3-4BDF1C58CB58}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F01469EA-D98C-4A34-BC14-2AB273BEC160}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="338">
   <si>
     <t>Población según si en los últimos 12 meses han visitado un laboratorio de análisis en 2015 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -75,28 +75,28 @@
     <t>48,51%</t>
   </si>
   <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>54,62%</t>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>54,27%</t>
   </si>
   <si>
     <t>53,45%</t>
   </si>
   <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
+    <t>47,49%</t>
+  </si>
+  <si>
+    <t>59,45%</t>
   </si>
   <si>
     <t>50,96%</t>
   </si>
   <si>
-    <t>46,66%</t>
-  </si>
-  <si>
-    <t>55,23%</t>
+    <t>46,56%</t>
+  </si>
+  <si>
+    <t>55,06%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>51,49%</t>
   </si>
   <si>
-    <t>45,38%</t>
-  </si>
-  <si>
-    <t>57,13%</t>
+    <t>45,73%</t>
+  </si>
+  <si>
+    <t>57,89%</t>
   </si>
   <si>
     <t>46,55%</t>
   </si>
   <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>52,98%</t>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
   </si>
   <si>
     <t>49,04%</t>
   </si>
   <si>
-    <t>44,77%</t>
-  </si>
-  <si>
-    <t>53,34%</t>
+    <t>44,94%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
   </si>
   <si>
     <t>100%</t>
@@ -141,31 +141,31 @@
     <t>41,98%</t>
   </si>
   <si>
-    <t>51,2%</t>
+    <t>51,22%</t>
   </si>
   <si>
     <t>57,79%</t>
   </si>
   <si>
-    <t>53,59%</t>
-  </si>
-  <si>
-    <t>62,28%</t>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>62,26%</t>
   </si>
   <si>
     <t>52,37%</t>
   </si>
   <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>55,42%</t>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>55,47%</t>
   </si>
   <si>
     <t>53,28%</t>
   </si>
   <si>
-    <t>48,8%</t>
+    <t>48,78%</t>
   </si>
   <si>
     <t>58,02%</t>
@@ -174,19 +174,19 @@
     <t>42,21%</t>
   </si>
   <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>46,63%</t>
   </si>
   <si>
     <t>47,63%</t>
   </si>
   <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>50,77%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -195,49 +195,55 @@
     <t>42,82%</t>
   </si>
   <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
   </si>
   <si>
     <t>55,56%</t>
   </si>
   <si>
-    <t>49,74%</t>
-  </si>
-  <si>
-    <t>60,71%</t>
+    <t>49,93%</t>
+  </si>
+  <si>
+    <t>61,21%</t>
   </si>
   <si>
     <t>49,36%</t>
   </si>
   <si>
-    <t>45,6%</t>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>53,19%</t>
   </si>
   <si>
     <t>57,18%</t>
   </si>
   <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>62,63%</t>
+    <t>52,11%</t>
+  </si>
+  <si>
+    <t>62,22%</t>
   </si>
   <si>
     <t>44,44%</t>
   </si>
   <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>50,07%</t>
   </si>
   <si>
     <t>50,64%</t>
   </si>
   <si>
-    <t>54,4%</t>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -246,10 +252,10 @@
     <t>55,2%</t>
   </si>
   <si>
-    <t>49,92%</t>
-  </si>
-  <si>
-    <t>60,47%</t>
+    <t>49,94%</t>
+  </si>
+  <si>
+    <t>60,5%</t>
   </si>
   <si>
     <t>61,6%</t>
@@ -258,94 +264,100 @@
     <t>56,37%</t>
   </si>
   <si>
-    <t>66,73%</t>
+    <t>66,5%</t>
   </si>
   <si>
     <t>58,47%</t>
   </si>
   <si>
+    <t>54,9%</t>
+  </si>
+  <si>
+    <t>62,27%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>50,06%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>45,1%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>53,31%</t>
+  </si>
+  <si>
     <t>54,57%</t>
   </si>
   <si>
-    <t>62,19%</t>
-  </si>
-  <si>
-    <t>44,8%</t>
-  </si>
-  <si>
-    <t>39,53%</t>
-  </si>
-  <si>
-    <t>50,08%</t>
-  </si>
-  <si>
-    <t>38,4%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
+    <t>47,53%</t>
+  </si>
+  <si>
+    <t>61,07%</t>
+  </si>
+  <si>
+    <t>50,33%</t>
+  </si>
+  <si>
+    <t>45,85%</t>
+  </si>
+  <si>
+    <t>55,69%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>60,09%</t>
   </si>
   <si>
     <t>45,43%</t>
   </si>
   <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>52,21%</t>
-  </si>
-  <si>
-    <t>47,59%</t>
-  </si>
-  <si>
-    <t>60,19%</t>
-  </si>
-  <si>
-    <t>50,33%</t>
-  </si>
-  <si>
-    <t>45,32%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>59,97%</t>
-  </si>
-  <si>
-    <t>39,81%</t>
-  </si>
-  <si>
-    <t>52,41%</t>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>52,47%</t>
   </si>
   <si>
     <t>49,67%</t>
   </si>
   <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>54,68%</t>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>54,15%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -354,55 +366,55 @@
     <t>52,52%</t>
   </si>
   <si>
-    <t>46,44%</t>
-  </si>
-  <si>
-    <t>58,7%</t>
+    <t>45,74%</t>
+  </si>
+  <si>
+    <t>58,17%</t>
   </si>
   <si>
     <t>59,77%</t>
   </si>
   <si>
-    <t>53,67%</t>
-  </si>
-  <si>
-    <t>65,36%</t>
+    <t>53,91%</t>
+  </si>
+  <si>
+    <t>65,64%</t>
   </si>
   <si>
     <t>56,21%</t>
   </si>
   <si>
-    <t>51,98%</t>
-  </si>
-  <si>
-    <t>60,18%</t>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>60,45%</t>
   </si>
   <si>
     <t>47,48%</t>
   </si>
   <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>53,56%</t>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>54,26%</t>
   </si>
   <si>
     <t>40,23%</t>
   </si>
   <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
   </si>
   <si>
     <t>43,79%</t>
   </si>
   <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>48,02%</t>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>48,55%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -411,55 +423,55 @@
     <t>35,51%</t>
   </si>
   <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
   </si>
   <si>
     <t>49,15%</t>
   </si>
   <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>53,17%</t>
   </si>
   <si>
     <t>42,51%</t>
   </si>
   <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>45,45%</t>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
   </si>
   <si>
     <t>64,49%</t>
   </si>
   <si>
-    <t>60,15%</t>
-  </si>
-  <si>
-    <t>68,28%</t>
+    <t>60,31%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
   </si>
   <si>
     <t>50,85%</t>
   </si>
   <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>55,1%</t>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
   </si>
   <si>
     <t>57,49%</t>
   </si>
   <si>
-    <t>54,55%</t>
-  </si>
-  <si>
-    <t>60,36%</t>
+    <t>54,86%</t>
+  </si>
+  <si>
+    <t>60,29%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -468,109 +480,91 @@
     <t>50,4%</t>
   </si>
   <si>
-    <t>46,71%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
+    <t>46,6%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
   </si>
   <si>
     <t>62,99%</t>
   </si>
   <si>
-    <t>59,44%</t>
-  </si>
-  <si>
-    <t>66,31%</t>
+    <t>59,49%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
   </si>
   <si>
     <t>56,88%</t>
   </si>
   <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>59,34%</t>
-  </si>
-  <si>
     <t>49,6%</t>
   </si>
   <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>53,29%</t>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>53,4%</t>
   </si>
   <si>
     <t>37,01%</t>
   </si>
   <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>40,51%</t>
   </si>
   <si>
     <t>43,12%</t>
   </si>
   <si>
-    <t>40,66%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
     <t>46,51%</t>
   </si>
   <si>
-    <t>44,91%</t>
-  </si>
-  <si>
-    <t>48,29%</t>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>48,1%</t>
   </si>
   <si>
     <t>57,12%</t>
   </si>
   <si>
-    <t>55,38%</t>
-  </si>
-  <si>
-    <t>58,92%</t>
+    <t>55,39%</t>
+  </si>
+  <si>
+    <t>58,81%</t>
   </si>
   <si>
     <t>51,93%</t>
   </si>
   <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>53,32%</t>
+    <t>50,69%</t>
+  </si>
+  <si>
+    <t>53,09%</t>
   </si>
   <si>
     <t>53,49%</t>
   </si>
   <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>55,09%</t>
+    <t>51,9%</t>
   </si>
   <si>
     <t>42,88%</t>
   </si>
   <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
+    <t>41,19%</t>
   </si>
   <si>
     <t>48,07%</t>
   </si>
   <si>
-    <t>46,68%</t>
-  </si>
-  <si>
-    <t>49,19%</t>
+    <t>46,91%</t>
+  </si>
+  <si>
+    <t>49,31%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -582,481 +576,481 @@
     <t>67,64%</t>
   </si>
   <si>
-    <t>61,5%</t>
-  </si>
-  <si>
-    <t>73,56%</t>
+    <t>61,82%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
   </si>
   <si>
     <t>71,79%</t>
   </si>
   <si>
-    <t>67,58%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
+    <t>67,12%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
   </si>
   <si>
     <t>69,76%</t>
   </si>
   <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>73,36%</t>
+    <t>66,11%</t>
+  </si>
+  <si>
+    <t>73,43%</t>
   </si>
   <si>
     <t>32,36%</t>
   </si>
   <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
   </si>
   <si>
     <t>28,21%</t>
   </si>
   <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
   </si>
   <si>
     <t>30,24%</t>
   </si>
   <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
   </si>
   <si>
     <t>25,45%</t>
   </si>
   <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
   </si>
   <si>
     <t>30,18%</t>
   </si>
   <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
   </si>
   <si>
     <t>27,89%</t>
   </si>
   <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
   </si>
   <si>
     <t>74,55%</t>
   </si>
   <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>78,86%</t>
+    <t>69,53%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
   </si>
   <si>
     <t>69,82%</t>
   </si>
   <si>
-    <t>66,16%</t>
-  </si>
-  <si>
-    <t>73,32%</t>
+    <t>65,95%</t>
+  </si>
+  <si>
+    <t>73,15%</t>
   </si>
   <si>
     <t>72,11%</t>
   </si>
   <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
+    <t>68,89%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
   </si>
   <si>
     <t>65,67%</t>
   </si>
   <si>
-    <t>60,13%</t>
-  </si>
-  <si>
-    <t>71,23%</t>
+    <t>60,4%</t>
+  </si>
+  <si>
+    <t>70,7%</t>
   </si>
   <si>
     <t>69,3%</t>
   </si>
   <si>
-    <t>65,28%</t>
-  </si>
-  <si>
-    <t>73,86%</t>
+    <t>64,97%</t>
+  </si>
+  <si>
+    <t>73,51%</t>
   </si>
   <si>
     <t>67,61%</t>
   </si>
   <si>
-    <t>64,25%</t>
-  </si>
-  <si>
-    <t>71,05%</t>
+    <t>64,21%</t>
+  </si>
+  <si>
+    <t>71,13%</t>
   </si>
   <si>
     <t>34,33%</t>
   </si>
   <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
   </si>
   <si>
     <t>30,7%</t>
   </si>
   <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
   </si>
   <si>
     <t>32,39%</t>
   </si>
   <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
   </si>
   <si>
     <t>52,17%</t>
   </si>
   <si>
-    <t>44,81%</t>
-  </si>
-  <si>
-    <t>58,95%</t>
+    <t>58,52%</t>
   </si>
   <si>
     <t>50,95%</t>
   </si>
   <si>
-    <t>44,85%</t>
-  </si>
-  <si>
-    <t>56,8%</t>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>56,46%</t>
   </si>
   <si>
     <t>51,47%</t>
   </si>
   <si>
-    <t>46,25%</t>
-  </si>
-  <si>
-    <t>55,6%</t>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>55,78%</t>
   </si>
   <si>
     <t>47,83%</t>
   </si>
   <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>55,19%</t>
+    <t>41,48%</t>
   </si>
   <si>
     <t>49,05%</t>
   </si>
   <si>
-    <t>43,2%</t>
-  </si>
-  <si>
-    <t>55,15%</t>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>55,71%</t>
   </si>
   <si>
     <t>48,53%</t>
   </si>
   <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>53,75%</t>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
   </si>
   <si>
     <t>59,22%</t>
   </si>
   <si>
-    <t>64,99%</t>
+    <t>53,2%</t>
+  </si>
+  <si>
+    <t>65,97%</t>
   </si>
   <si>
     <t>67,72%</t>
   </si>
   <si>
-    <t>62,67%</t>
-  </si>
-  <si>
-    <t>72,59%</t>
+    <t>62,6%</t>
+  </si>
+  <si>
+    <t>71,89%</t>
   </si>
   <si>
     <t>63,82%</t>
   </si>
   <si>
-    <t>59,64%</t>
-  </si>
-  <si>
-    <t>67,79%</t>
+    <t>59,69%</t>
+  </si>
+  <si>
+    <t>67,59%</t>
   </si>
   <si>
     <t>40,78%</t>
   </si>
   <si>
-    <t>35,01%</t>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>46,8%</t>
   </si>
   <si>
     <t>32,28%</t>
   </si>
   <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
   </si>
   <si>
     <t>36,18%</t>
   </si>
   <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>40,31%</t>
   </si>
   <si>
     <t>61,53%</t>
   </si>
   <si>
-    <t>55,96%</t>
-  </si>
-  <si>
-    <t>67,27%</t>
+    <t>55,67%</t>
+  </si>
+  <si>
+    <t>67,28%</t>
   </si>
   <si>
     <t>69,36%</t>
   </si>
   <si>
-    <t>64,26%</t>
-  </si>
-  <si>
-    <t>73,97%</t>
+    <t>64,09%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
   </si>
   <si>
     <t>65,43%</t>
   </si>
   <si>
-    <t>61,47%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
+    <t>61,63%</t>
+  </si>
+  <si>
+    <t>69,29%</t>
   </si>
   <si>
     <t>38,47%</t>
   </si>
   <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>44,33%</t>
   </si>
   <si>
     <t>30,64%</t>
   </si>
   <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
   </si>
   <si>
     <t>34,57%</t>
   </si>
   <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
   </si>
   <si>
     <t>61,52%</t>
   </si>
   <si>
-    <t>56,87%</t>
-  </si>
-  <si>
-    <t>65,91%</t>
+    <t>56,51%</t>
+  </si>
+  <si>
+    <t>65,72%</t>
   </si>
   <si>
     <t>74,16%</t>
   </si>
   <si>
-    <t>69,0%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
+    <t>68,78%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
   </si>
   <si>
     <t>68,62%</t>
   </si>
   <si>
-    <t>64,85%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
+    <t>64,61%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
   </si>
   <si>
     <t>38,48%</t>
   </si>
   <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>43,13%</t>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
   </si>
   <si>
     <t>25,84%</t>
   </si>
   <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
   </si>
   <si>
     <t>31,38%</t>
   </si>
   <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
   </si>
   <si>
     <t>37,48%</t>
   </si>
   <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>50,98%</t>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
   </si>
   <si>
     <t>43,05%</t>
   </si>
   <si>
-    <t>39,99%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
   </si>
   <si>
     <t>40,28%</t>
   </si>
   <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>46,76%</t>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>46,67%</t>
   </si>
   <si>
     <t>62,52%</t>
   </si>
   <si>
-    <t>49,02%</t>
-  </si>
-  <si>
-    <t>67,65%</t>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>67,93%</t>
   </si>
   <si>
     <t>56,95%</t>
   </si>
   <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>60,01%</t>
+    <t>53,86%</t>
+  </si>
+  <si>
+    <t>60,11%</t>
   </si>
   <si>
     <t>59,72%</t>
   </si>
   <si>
-    <t>53,24%</t>
-  </si>
-  <si>
-    <t>62,53%</t>
+    <t>53,33%</t>
+  </si>
+  <si>
+    <t>62,64%</t>
   </si>
   <si>
     <t>49,71%</t>
   </si>
   <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>52,86%</t>
+    <t>47,58%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
   </si>
   <si>
     <t>56,67%</t>
   </si>
   <si>
-    <t>54,71%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
   </si>
   <si>
     <t>53,39%</t>
   </si>
   <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>56,2%</t>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
   </si>
   <si>
     <t>50,29%</t>
   </si>
   <si>
-    <t>47,14%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>52,42%</t>
   </si>
   <si>
     <t>43,33%</t>
   </si>
   <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>45,36%</t>
   </si>
   <si>
     <t>46,61%</t>
   </si>
   <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
   </si>
 </sst>
 </file>
@@ -1468,7 +1462,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{346FDE31-2341-4AA8-9520-84C9DBD48B51}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE5494EF-E92D-49D6-ABDF-5D136050A511}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1938,7 +1932,7 @@
         <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1953,13 +1947,13 @@
         <v>182150</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>151</v>
@@ -1968,13 +1962,13 @@
         <v>149468</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>342</v>
@@ -1983,13 +1977,13 @@
         <v>331617</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2045,7 +2039,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2057,13 +2051,13 @@
         <v>204219</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>218</v>
@@ -2072,13 +2066,13 @@
         <v>238574</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>415</v>
@@ -2087,13 +2081,13 @@
         <v>442793</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2108,13 +2102,13 @@
         <v>165745</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>140</v>
@@ -2123,13 +2117,13 @@
         <v>148709</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>297</v>
@@ -2138,13 +2132,13 @@
         <v>314454</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2200,7 +2194,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2212,13 +2206,13 @@
         <v>97045</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>120</v>
@@ -2227,13 +2221,13 @@
         <v>119285</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>219</v>
@@ -2242,13 +2236,13 @@
         <v>216330</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2263,13 +2257,13 @@
         <v>114176</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>103</v>
@@ -2278,13 +2272,13 @@
         <v>99302</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>216</v>
@@ -2293,13 +2287,13 @@
         <v>213478</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2355,7 +2349,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2367,13 +2361,13 @@
         <v>138188</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>156</v>
@@ -2382,13 +2376,13 @@
         <v>163253</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>293</v>
@@ -2397,13 +2391,13 @@
         <v>301441</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2418,13 +2412,13 @@
         <v>124935</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>107</v>
@@ -2433,13 +2427,13 @@
         <v>109862</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>229</v>
@@ -2448,13 +2442,13 @@
         <v>234797</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2510,7 +2504,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2522,13 +2516,13 @@
         <v>233139</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>310</v>
@@ -2537,13 +2531,13 @@
         <v>339779</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>518</v>
@@ -2552,13 +2546,13 @@
         <v>572919</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2573,13 +2567,13 @@
         <v>423419</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>336</v>
@@ -2588,13 +2582,13 @@
         <v>351515</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>708</v>
@@ -2603,13 +2597,13 @@
         <v>774933</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2665,7 +2659,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2677,13 +2671,13 @@
         <v>392416</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>469</v>
@@ -2692,13 +2686,13 @@
         <v>520423</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>852</v>
@@ -2707,13 +2701,13 @@
         <v>912838</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>149</v>
+        <v>68</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>150</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2728,13 +2722,13 @@
         <v>386167</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H26" s="7">
         <v>286</v>
@@ -2743,13 +2737,13 @@
         <v>305744</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M26" s="7">
         <v>653</v>
@@ -2758,13 +2752,13 @@
         <v>691912</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>158</v>
+        <v>25</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>159</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2889,7 +2883,7 @@
         <v>170</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="H29" s="7">
         <v>1460</v>
@@ -2898,13 +2892,13 @@
         <v>1519778</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="K29" s="7" t="s">
-        <v>173</v>
-      </c>
       <c r="L29" s="7" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="M29" s="7">
         <v>3172</v>
@@ -2913,13 +2907,13 @@
         <v>3335377</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2975,7 +2969,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -2999,7 +2993,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2EFCFCE-9D03-4E82-8529-5803843E22A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DBAA9A1-3AE5-4EAD-AD1B-5BEB90EA9ED8}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3016,7 +3010,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3123,13 +3117,13 @@
         <v>175351</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H4" s="7">
         <v>392</v>
@@ -3138,13 +3132,13 @@
         <v>194832</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M4" s="7">
         <v>611</v>
@@ -3153,13 +3147,13 @@
         <v>370183</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3174,13 +3168,13 @@
         <v>83883</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H5" s="7">
         <v>146</v>
@@ -3189,13 +3183,13 @@
         <v>76571</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M5" s="7">
         <v>257</v>
@@ -3204,13 +3198,13 @@
         <v>160453</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3278,13 +3272,13 @@
         <v>132180</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="H7" s="7">
         <v>218</v>
@@ -3293,13 +3287,13 @@
         <v>166808</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M7" s="7">
         <v>326</v>
@@ -3308,13 +3302,13 @@
         <v>298988</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3329,13 +3323,13 @@
         <v>387117</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="H8" s="7">
         <v>496</v>
@@ -3344,13 +3338,13 @@
         <v>385839</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M8" s="7">
         <v>770</v>
@@ -3359,13 +3353,13 @@
         <v>772956</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3433,13 +3427,13 @@
         <v>211619</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="H10" s="7">
         <v>385</v>
@@ -3448,13 +3442,13 @@
         <v>257993</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="M10" s="7">
         <v>637</v>
@@ -3463,13 +3457,13 @@
         <v>469612</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3484,13 +3478,13 @@
         <v>110621</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="H11" s="7">
         <v>150</v>
@@ -3499,13 +3493,13 @@
         <v>114316</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="M11" s="7">
         <v>258</v>
@@ -3514,13 +3508,13 @@
         <v>224937</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3576,7 +3570,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3588,13 +3582,13 @@
         <v>168098</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>235</v>
+        <v>131</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H13" s="7">
         <v>334</v>
@@ -3603,13 +3597,13 @@
         <v>217784</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="M13" s="7">
         <v>494</v>
@@ -3618,13 +3612,13 @@
         <v>385883</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3639,13 +3633,13 @@
         <v>154142</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>245</v>
+        <v>141</v>
       </c>
       <c r="H14" s="7">
         <v>263</v>
@@ -3654,13 +3648,13 @@
         <v>209662</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="M14" s="7">
         <v>395</v>
@@ -3669,13 +3663,13 @@
         <v>363803</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3731,7 +3725,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3743,13 +3737,13 @@
         <v>116524</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>26</v>
+        <v>249</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H16" s="7">
         <v>356</v>
@@ -3758,13 +3752,13 @@
         <v>157050</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="M16" s="7">
         <v>528</v>
@@ -3773,13 +3767,13 @@
         <v>273574</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3794,13 +3788,13 @@
         <v>80224</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>15</v>
+        <v>259</v>
       </c>
       <c r="H17" s="7">
         <v>136</v>
@@ -3809,13 +3803,13 @@
         <v>74853</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="M17" s="7">
         <v>243</v>
@@ -3824,13 +3818,13 @@
         <v>155077</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3886,7 +3880,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3898,13 +3892,13 @@
         <v>170583</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="H19" s="7">
         <v>338</v>
@@ -3913,13 +3907,13 @@
         <v>190671</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="M19" s="7">
         <v>594</v>
@@ -3928,13 +3922,13 @@
         <v>361254</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3949,13 +3943,13 @@
         <v>106640</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="H20" s="7">
         <v>121</v>
@@ -3964,13 +3958,13 @@
         <v>84220</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="M20" s="7">
         <v>236</v>
@@ -3979,13 +3973,13 @@
         <v>190860</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4041,7 +4035,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4053,13 +4047,13 @@
         <v>384841</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="H22" s="7">
         <v>693</v>
@@ -4068,13 +4062,13 @@
         <v>595266</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="M22" s="7">
         <v>1076</v>
@@ -4083,13 +4077,13 @@
         <v>980108</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4104,13 +4098,13 @@
         <v>240757</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>297</v>
       </c>
       <c r="H23" s="7">
         <v>264</v>
@@ -4119,13 +4113,13 @@
         <v>207370</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="M23" s="7">
         <v>478</v>
@@ -4134,13 +4128,13 @@
         <v>448126</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4196,7 +4190,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4208,13 +4202,13 @@
         <v>322141</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>306</v>
       </c>
       <c r="H25" s="7">
         <v>495</v>
@@ -4223,13 +4217,13 @@
         <v>373860</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="M25" s="7">
         <v>793</v>
@@ -4238,13 +4232,13 @@
         <v>696002</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4259,13 +4253,13 @@
         <v>537287</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="H26" s="7">
         <v>567</v>
@@ -4274,13 +4268,13 @@
         <v>494574</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>318</v>
       </c>
       <c r="M26" s="7">
         <v>1031</v>
@@ -4289,13 +4283,13 @@
         <v>1031860</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4363,13 +4357,13 @@
         <v>1681338</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>324</v>
       </c>
       <c r="H28" s="7">
         <v>3211</v>
@@ -4378,13 +4372,13 @@
         <v>2154264</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>327</v>
       </c>
       <c r="M28" s="7">
         <v>5059</v>
@@ -4393,13 +4387,13 @@
         <v>3835602</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4414,13 +4408,13 @@
         <v>1700670</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>333</v>
       </c>
       <c r="H29" s="7">
         <v>2143</v>
@@ -4429,13 +4423,13 @@
         <v>1647404</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>336</v>
       </c>
       <c r="M29" s="7">
         <v>3668</v>
@@ -4444,13 +4438,13 @@
         <v>3348074</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4506,7 +4500,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1801-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1801-Provincia-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{627AD194-8E0D-4CBD-87D9-C1CB341DCFE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{35A41ED1-8BC1-4C40-8F24-84F6708E2E8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F01469EA-D98C-4A34-BC14-2AB273BEC160}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{24AAFA5C-1B05-4D7E-8FA4-93BC7ACB9E0A}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
     <sheet name="2023" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="338">
   <si>
-    <t>Población según si en los últimos 12 meses han visitado un laboratorio de análisis en 2015 (Tasa respuesta: 100,0%)</t>
+    <t>Población según si en los últimos 12 meses han visitado un laboratorio de análisis en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -75,118 +75,118 @@
     <t>48,51%</t>
   </si>
   <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>54,04%</t>
   </si>
   <si>
     <t>53,45%</t>
   </si>
   <si>
-    <t>47,49%</t>
-  </si>
-  <si>
-    <t>59,45%</t>
+    <t>47,74%</t>
+  </si>
+  <si>
+    <t>59,48%</t>
   </si>
   <si>
     <t>50,96%</t>
   </si>
   <si>
+    <t>46,57%</t>
+  </si>
+  <si>
+    <t>55,28%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>51,49%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>57,94%</t>
+  </si>
+  <si>
+    <t>46,55%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
+  </si>
+  <si>
+    <t>52,26%</t>
+  </si>
+  <si>
+    <t>49,04%</t>
+  </si>
+  <si>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>53,43%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>41,97%</t>
+  </si>
+  <si>
+    <t>51,29%</t>
+  </si>
+  <si>
+    <t>57,79%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
+  </si>
+  <si>
+    <t>62,27%</t>
+  </si>
+  <si>
+    <t>52,37%</t>
+  </si>
+  <si>
+    <t>49,39%</t>
+  </si>
+  <si>
+    <t>55,41%</t>
+  </si>
+  <si>
+    <t>53,28%</t>
+  </si>
+  <si>
+    <t>48,71%</t>
+  </si>
+  <si>
+    <t>58,03%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
     <t>46,56%</t>
   </si>
   <si>
-    <t>55,06%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>51,49%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>57,89%</t>
-  </si>
-  <si>
-    <t>46,55%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>44,94%</t>
-  </si>
-  <si>
-    <t>53,44%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>51,22%</t>
-  </si>
-  <si>
-    <t>57,79%</t>
-  </si>
-  <si>
-    <t>53,37%</t>
-  </si>
-  <si>
-    <t>62,26%</t>
-  </si>
-  <si>
-    <t>52,37%</t>
-  </si>
-  <si>
-    <t>49,23%</t>
-  </si>
-  <si>
-    <t>55,47%</t>
-  </si>
-  <si>
-    <t>53,28%</t>
-  </si>
-  <si>
-    <t>48,78%</t>
-  </si>
-  <si>
-    <t>58,02%</t>
-  </si>
-  <si>
-    <t>42,21%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>46,63%</t>
-  </si>
-  <si>
     <t>47,63%</t>
   </si>
   <si>
-    <t>44,53%</t>
-  </si>
-  <si>
-    <t>50,77%</t>
+    <t>44,59%</t>
+  </si>
+  <si>
+    <t>50,61%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -195,55 +195,55 @@
     <t>42,82%</t>
   </si>
   <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>47,89%</t>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
   </si>
   <si>
     <t>55,56%</t>
   </si>
   <si>
-    <t>49,93%</t>
-  </si>
-  <si>
-    <t>61,21%</t>
+    <t>50,16%</t>
+  </si>
+  <si>
+    <t>60,34%</t>
   </si>
   <si>
     <t>49,36%</t>
   </si>
   <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>53,19%</t>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>53,33%</t>
   </si>
   <si>
     <t>57,18%</t>
   </si>
   <si>
-    <t>52,11%</t>
-  </si>
-  <si>
-    <t>62,22%</t>
+    <t>51,86%</t>
+  </si>
+  <si>
+    <t>62,36%</t>
   </si>
   <si>
     <t>44,44%</t>
   </si>
   <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>50,07%</t>
+    <t>39,66%</t>
+  </si>
+  <si>
+    <t>49,84%</t>
   </si>
   <si>
     <t>50,64%</t>
   </si>
   <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
+    <t>46,67%</t>
+  </si>
+  <si>
+    <t>54,07%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -252,55 +252,55 @@
     <t>55,2%</t>
   </si>
   <si>
-    <t>49,94%</t>
-  </si>
-  <si>
-    <t>60,5%</t>
+    <t>49,81%</t>
+  </si>
+  <si>
+    <t>59,89%</t>
   </si>
   <si>
     <t>61,6%</t>
   </si>
   <si>
-    <t>56,37%</t>
-  </si>
-  <si>
-    <t>66,5%</t>
+    <t>56,69%</t>
+  </si>
+  <si>
+    <t>66,58%</t>
   </si>
   <si>
     <t>58,47%</t>
   </si>
   <si>
-    <t>54,9%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>61,91%</t>
   </si>
   <si>
     <t>44,8%</t>
   </si>
   <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>50,06%</t>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>50,19%</t>
   </si>
   <si>
     <t>38,4%</t>
   </si>
   <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
   </si>
   <si>
     <t>41,53%</t>
   </si>
   <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>45,1%</t>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -309,55 +309,49 @@
     <t>45,94%</t>
   </si>
   <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>53,31%</t>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
   </si>
   <si>
     <t>54,57%</t>
   </si>
   <si>
-    <t>47,53%</t>
-  </si>
-  <si>
-    <t>61,07%</t>
+    <t>60,67%</t>
   </si>
   <si>
     <t>50,33%</t>
   </si>
   <si>
-    <t>45,85%</t>
-  </si>
-  <si>
-    <t>55,69%</t>
+    <t>45,35%</t>
+  </si>
+  <si>
+    <t>55,26%</t>
   </si>
   <si>
     <t>54,06%</t>
   </si>
   <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>60,09%</t>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>60,85%</t>
   </si>
   <si>
     <t>45,43%</t>
   </si>
   <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>52,47%</t>
+    <t>39,33%</t>
   </si>
   <si>
     <t>49,67%</t>
   </si>
   <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>54,15%</t>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>54,65%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -366,405 +360,417 @@
     <t>52,52%</t>
   </si>
   <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>59,77%</t>
+  </si>
+  <si>
+    <t>54,16%</t>
+  </si>
+  <si>
+    <t>65,75%</t>
+  </si>
+  <si>
+    <t>56,21%</t>
+  </si>
+  <si>
+    <t>51,82%</t>
+  </si>
+  <si>
+    <t>60,26%</t>
+  </si>
+  <si>
+    <t>47,48%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>52,96%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>64,49%</t>
+  </si>
+  <si>
+    <t>60,14%</t>
+  </si>
+  <si>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>50,85%</t>
+  </si>
+  <si>
+    <t>47,04%</t>
+  </si>
+  <si>
+    <t>54,98%</t>
+  </si>
+  <si>
+    <t>57,49%</t>
+  </si>
+  <si>
+    <t>60,3%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>50,4%</t>
+  </si>
+  <si>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>53,83%</t>
+  </si>
+  <si>
+    <t>62,99%</t>
+  </si>
+  <si>
+    <t>59,58%</t>
+  </si>
+  <si>
+    <t>66,45%</t>
+  </si>
+  <si>
+    <t>56,88%</t>
+  </si>
+  <si>
+    <t>54,26%</t>
+  </si>
+  <si>
+    <t>59,39%</t>
+  </si>
+  <si>
+    <t>49,6%</t>
+  </si>
+  <si>
+    <t>46,17%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
     <t>45,74%</t>
   </si>
   <si>
-    <t>58,17%</t>
-  </si>
-  <si>
-    <t>59,77%</t>
-  </si>
-  <si>
-    <t>53,91%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>56,21%</t>
-  </si>
-  <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>60,45%</t>
-  </si>
-  <si>
-    <t>47,48%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>54,26%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>46,09%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>48,55%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>55,45%</t>
+  </si>
+  <si>
+    <t>58,78%</t>
+  </si>
+  <si>
+    <t>51,93%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>53,18%</t>
+  </si>
+  <si>
+    <t>53,49%</t>
+  </si>
+  <si>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>41,22%</t>
+  </si>
+  <si>
+    <t>44,55%</t>
+  </si>
+  <si>
+    <t>48,07%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>49,27%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en los últimos 12 meses han visitado un laboratorio de análisis en 2023 (Tasa respuesta: 99,82%)</t>
+  </si>
+  <si>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>61,82%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>71,79%</t>
+  </si>
+  <si>
+    <t>67,12%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>66,11%</t>
+  </si>
+  <si>
+    <t>73,43%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>74,55%</t>
+  </si>
+  <si>
+    <t>69,53%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
+  </si>
+  <si>
+    <t>65,95%</t>
+  </si>
+  <si>
+    <t>73,15%</t>
+  </si>
+  <si>
+    <t>72,11%</t>
+  </si>
+  <si>
+    <t>68,89%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>60,4%</t>
+  </si>
+  <si>
+    <t>70,7%</t>
+  </si>
+  <si>
+    <t>69,3%</t>
+  </si>
+  <si>
+    <t>64,97%</t>
+  </si>
+  <si>
+    <t>73,51%</t>
+  </si>
+  <si>
+    <t>67,61%</t>
+  </si>
+  <si>
+    <t>64,21%</t>
+  </si>
+  <si>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
   </si>
   <si>
     <t>45,16%</t>
   </si>
   <si>
-    <t>53,17%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>64,49%</t>
-  </si>
-  <si>
-    <t>60,31%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>50,85%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
+    <t>58,52%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>56,46%</t>
+  </si>
+  <si>
+    <t>51,47%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>55,78%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
   </si>
   <si>
     <t>54,84%</t>
   </si>
   <si>
-    <t>57,49%</t>
-  </si>
-  <si>
-    <t>54,86%</t>
-  </si>
-  <si>
-    <t>60,29%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>50,4%</t>
-  </si>
-  <si>
-    <t>46,6%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
-  </si>
-  <si>
-    <t>62,99%</t>
-  </si>
-  <si>
-    <t>59,49%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>56,88%</t>
-  </si>
-  <si>
-    <t>49,6%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>53,4%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>48,1%</t>
-  </si>
-  <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>55,39%</t>
-  </si>
-  <si>
-    <t>58,81%</t>
-  </si>
-  <si>
-    <t>51,93%</t>
-  </si>
-  <si>
-    <t>50,69%</t>
-  </si>
-  <si>
-    <t>53,09%</t>
-  </si>
-  <si>
-    <t>53,49%</t>
-  </si>
-  <si>
-    <t>51,9%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>48,07%</t>
-  </si>
-  <si>
-    <t>46,91%</t>
-  </si>
-  <si>
-    <t>49,31%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en los últimos 12 meses han visitado un laboratorio de análisis en 2023 (Tasa respuesta: 99,82%)</t>
-  </si>
-  <si>
-    <t>67,64%</t>
-  </si>
-  <si>
-    <t>61,82%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>71,79%</t>
-  </si>
-  <si>
-    <t>67,12%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>66,11%</t>
-  </si>
-  <si>
-    <t>73,43%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>74,55%</t>
-  </si>
-  <si>
-    <t>69,53%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>65,95%</t>
-  </si>
-  <si>
-    <t>73,15%</t>
-  </si>
-  <si>
-    <t>72,11%</t>
-  </si>
-  <si>
-    <t>68,89%</t>
-  </si>
-  <si>
-    <t>74,82%</t>
-  </si>
-  <si>
-    <t>65,67%</t>
-  </si>
-  <si>
-    <t>60,4%</t>
-  </si>
-  <si>
-    <t>70,7%</t>
-  </si>
-  <si>
-    <t>69,3%</t>
-  </si>
-  <si>
-    <t>64,97%</t>
-  </si>
-  <si>
-    <t>73,51%</t>
-  </si>
-  <si>
-    <t>67,61%</t>
-  </si>
-  <si>
-    <t>64,21%</t>
-  </si>
-  <si>
-    <t>71,13%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>58,52%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>56,46%</t>
-  </si>
-  <si>
-    <t>51,47%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>55,78%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
     <t>49,05%</t>
   </si>
   <si>
@@ -969,9 +975,6 @@
     <t>37,36%</t>
   </si>
   <si>
-    <t>46,67%</t>
-  </si>
-  <si>
     <t>62,52%</t>
   </si>
   <si>
@@ -991,9 +994,6 @@
   </si>
   <si>
     <t>59,72%</t>
-  </si>
-  <si>
-    <t>53,33%</t>
   </si>
   <si>
     <t>62,64%</t>
@@ -1462,7 +1462,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE5494EF-E92D-49D6-ABDF-5D136050A511}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{264E1F2B-BE10-4EAF-A161-F515B020CF0C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2224,10 +2224,10 @@
         <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>219</v>
@@ -2236,13 +2236,13 @@
         <v>216330</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2257,13 +2257,13 @@
         <v>114176</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>103</v>
@@ -2272,13 +2272,13 @@
         <v>99302</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="M17" s="7">
         <v>216</v>
@@ -2287,13 +2287,13 @@
         <v>213478</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2349,7 +2349,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2361,13 +2361,13 @@
         <v>138188</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H19" s="7">
         <v>156</v>
@@ -2376,13 +2376,13 @@
         <v>163253</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="M19" s="7">
         <v>293</v>
@@ -2391,13 +2391,13 @@
         <v>301441</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2412,13 +2412,13 @@
         <v>124935</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="H20" s="7">
         <v>107</v>
@@ -2427,13 +2427,13 @@
         <v>109862</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="M20" s="7">
         <v>229</v>
@@ -2442,13 +2442,13 @@
         <v>234797</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2504,7 +2504,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2516,13 +2516,13 @@
         <v>233139</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H22" s="7">
         <v>310</v>
@@ -2531,13 +2531,13 @@
         <v>339779</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="M22" s="7">
         <v>518</v>
@@ -2546,13 +2546,13 @@
         <v>572919</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>135</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2567,13 +2567,13 @@
         <v>423419</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="H23" s="7">
         <v>336</v>
@@ -2582,13 +2582,13 @@
         <v>351515</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="M23" s="7">
         <v>708</v>
@@ -2597,13 +2597,13 @@
         <v>774933</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2659,7 +2659,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2671,13 +2671,13 @@
         <v>392416</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="H25" s="7">
         <v>469</v>
@@ -2686,13 +2686,13 @@
         <v>520423</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="M25" s="7">
         <v>852</v>
@@ -2701,13 +2701,13 @@
         <v>912838</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>68</v>
+        <v>147</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>16</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2722,13 +2722,13 @@
         <v>386167</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H26" s="7">
         <v>286</v>
@@ -2737,13 +2737,13 @@
         <v>305744</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="M26" s="7">
         <v>653</v>
@@ -2752,13 +2752,13 @@
         <v>691912</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>25</v>
+        <v>156</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>58</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2826,13 +2826,13 @@
         <v>1578751</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H28" s="7">
         <v>1878</v>
@@ -2841,13 +2841,13 @@
         <v>2024764</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M28" s="7">
         <v>3397</v>
@@ -2856,13 +2856,13 @@
         <v>3603515</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2877,13 +2877,13 @@
         <v>1815599</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H29" s="7">
         <v>1460</v>
@@ -2892,13 +2892,13 @@
         <v>1519778</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="M29" s="7">
         <v>3172</v>
@@ -2993,7 +2993,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DBAA9A1-3AE5-4EAD-AD1B-5BEB90EA9ED8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91FFB37D-3C59-4D0D-8F70-E1B9D04E1CFB}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3585,10 +3585,10 @@
         <v>232</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>131</v>
+        <v>233</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H13" s="7">
         <v>334</v>
@@ -3597,13 +3597,13 @@
         <v>217784</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M13" s="7">
         <v>494</v>
@@ -3612,13 +3612,13 @@
         <v>385883</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3633,13 +3633,13 @@
         <v>154142</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>141</v>
+        <v>243</v>
       </c>
       <c r="H14" s="7">
         <v>263</v>
@@ -3648,13 +3648,13 @@
         <v>209662</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M14" s="7">
         <v>395</v>
@@ -3663,13 +3663,13 @@
         <v>363803</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3737,13 +3737,13 @@
         <v>116524</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H16" s="7">
         <v>356</v>
@@ -3752,13 +3752,13 @@
         <v>157050</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="M16" s="7">
         <v>528</v>
@@ -3767,13 +3767,13 @@
         <v>273574</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3788,13 +3788,13 @@
         <v>80224</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H17" s="7">
         <v>136</v>
@@ -3803,13 +3803,13 @@
         <v>74853</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M17" s="7">
         <v>243</v>
@@ -3818,13 +3818,13 @@
         <v>155077</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3880,7 +3880,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3892,13 +3892,13 @@
         <v>170583</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H19" s="7">
         <v>338</v>
@@ -3907,13 +3907,13 @@
         <v>190671</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M19" s="7">
         <v>594</v>
@@ -3922,13 +3922,13 @@
         <v>361254</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3943,13 +3943,13 @@
         <v>106640</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="H20" s="7">
         <v>121</v>
@@ -3958,13 +3958,13 @@
         <v>84220</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="M20" s="7">
         <v>236</v>
@@ -3973,13 +3973,13 @@
         <v>190860</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4035,7 +4035,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4047,13 +4047,13 @@
         <v>384841</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="H22" s="7">
         <v>693</v>
@@ -4062,13 +4062,13 @@
         <v>595266</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="M22" s="7">
         <v>1076</v>
@@ -4077,13 +4077,13 @@
         <v>980108</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4098,13 +4098,13 @@
         <v>240757</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="H23" s="7">
         <v>264</v>
@@ -4113,13 +4113,13 @@
         <v>207370</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="M23" s="7">
         <v>478</v>
@@ -4128,13 +4128,13 @@
         <v>448126</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4190,7 +4190,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4202,13 +4202,13 @@
         <v>322141</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="H25" s="7">
         <v>495</v>
@@ -4217,13 +4217,13 @@
         <v>373860</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="M25" s="7">
         <v>793</v>
@@ -4232,13 +4232,13 @@
         <v>696002</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>310</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4253,13 +4253,13 @@
         <v>537287</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H26" s="7">
         <v>567</v>
@@ -4268,13 +4268,13 @@
         <v>494574</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M26" s="7">
         <v>1031</v>
@@ -4283,10 +4283,10 @@
         <v>1031860</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>318</v>
+        <v>59</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>319</v>

--- a/data/trans_orig/P1801-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1801-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73DAD0F8-D7AE-4F7E-84FC-F8F35227B55A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E985DCDB-F91A-479C-B857-04AE37E22AC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9A194277-83EA-4A94-8703-99B8AEE69538}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{71C3ECF8-26EA-4B1E-B178-2CA744F79241}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="438">
   <si>
     <t>Población según si en los últimos 12 meses han visitado un laboratorio de análisis en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -257,7 +257,16 @@
     <t>Población según si en los últimos 12 meses han visitado un laboratorio de análisis en 2012 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
   </si>
   <si>
     <t>99,6%</t>
@@ -272,39 +281,51 @@
     <t>0,6%</t>
   </si>
   <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
     <t>99,85%</t>
   </si>
   <si>
     <t>0,15%</t>
   </si>
   <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
     <t>99,75%</t>
   </si>
   <si>
-    <t>0,27%</t>
-  </si>
-  <si>
     <t>0,25%</t>
   </si>
   <si>
@@ -818,283 +839,286 @@
     <t>0,22%</t>
   </si>
   <si>
-    <t>67,64%</t>
-  </si>
-  <si>
-    <t>61,5%</t>
-  </si>
-  <si>
-    <t>73,56%</t>
-  </si>
-  <si>
-    <t>71,79%</t>
-  </si>
-  <si>
-    <t>67,58%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>73,36%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
+    <t>66,81%</t>
+  </si>
+  <si>
+    <t>59,59%</t>
+  </si>
+  <si>
+    <t>73,33%</t>
+  </si>
+  <si>
+    <t>71,15%</t>
+  </si>
+  <si>
+    <t>66,61%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
+  </si>
+  <si>
+    <t>64,16%</t>
+  </si>
+  <si>
+    <t>72,94%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
   </si>
   <si>
     <t>0,18%</t>
   </si>
   <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>74,55%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>78,86%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>66,16%</t>
-  </si>
-  <si>
-    <t>73,32%</t>
-  </si>
-  <si>
-    <t>72,11%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>75,27%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>69,74%</t>
+  </si>
+  <si>
+    <t>66,05%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>72,52%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>75,47%</t>
   </si>
   <si>
     <t>0,21%</t>
   </si>
   <si>
-    <t>65,67%</t>
-  </si>
-  <si>
-    <t>60,13%</t>
-  </si>
-  <si>
-    <t>71,23%</t>
-  </si>
-  <si>
-    <t>69,3%</t>
-  </si>
-  <si>
-    <t>65,28%</t>
-  </si>
-  <si>
-    <t>73,86%</t>
-  </si>
-  <si>
-    <t>67,61%</t>
-  </si>
-  <si>
-    <t>64,25%</t>
-  </si>
-  <si>
-    <t>71,05%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
+    <t>65,0%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>70,61%</t>
+  </si>
+  <si>
+    <t>69,27%</t>
+  </si>
+  <si>
+    <t>65,24%</t>
+  </si>
+  <si>
+    <t>73,8%</t>
+  </si>
+  <si>
+    <t>67,24%</t>
+  </si>
+  <si>
+    <t>63,82%</t>
+  </si>
+  <si>
+    <t>70,77%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
   </si>
   <si>
     <t>0,66%</t>
   </si>
   <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>44,81%</t>
-  </si>
-  <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>44,85%</t>
-  </si>
-  <si>
-    <t>56,8%</t>
-  </si>
-  <si>
-    <t>51,47%</t>
-  </si>
-  <si>
-    <t>46,25%</t>
-  </si>
-  <si>
-    <t>55,6%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>55,19%</t>
-  </si>
-  <si>
-    <t>49,05%</t>
-  </si>
-  <si>
-    <t>43,2%</t>
-  </si>
-  <si>
-    <t>55,15%</t>
-  </si>
-  <si>
-    <t>48,53%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>53,75%</t>
+    <t>51,62%</t>
+  </si>
+  <si>
+    <t>44,28%</t>
+  </si>
+  <si>
+    <t>58,79%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>52,99%</t>
+  </si>
+  <si>
+    <t>46,01%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>41,21%</t>
+  </si>
+  <si>
+    <t>55,72%</t>
+  </si>
+  <si>
+    <t>57,68%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>74,04%</t>
+  </si>
+  <si>
+    <t>53,99%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>67,26%</t>
   </si>
   <si>
     <t>0,39%</t>
   </si>
   <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>64,99%</t>
-  </si>
-  <si>
-    <t>67,72%</t>
-  </si>
-  <si>
-    <t>62,67%</t>
-  </si>
-  <si>
-    <t>72,59%</t>
-  </si>
-  <si>
-    <t>63,82%</t>
-  </si>
-  <si>
-    <t>59,64%</t>
-  </si>
-  <si>
-    <t>67,79%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
+    <t>59,41%</t>
+  </si>
+  <si>
+    <t>53,18%</t>
+  </si>
+  <si>
+    <t>65,03%</t>
+  </si>
+  <si>
+    <t>68,24%</t>
+  </si>
+  <si>
+    <t>63,49%</t>
+  </si>
+  <si>
+    <t>72,96%</t>
+  </si>
+  <si>
+    <t>64,17%</t>
+  </si>
+  <si>
+    <t>60,12%</t>
+  </si>
+  <si>
+    <t>67,91%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
   </si>
   <si>
     <t>0,42%</t>
@@ -1103,172 +1127,172 @@
     <t>0,23%</t>
   </si>
   <si>
-    <t>61,53%</t>
-  </si>
-  <si>
-    <t>55,96%</t>
-  </si>
-  <si>
-    <t>67,27%</t>
-  </si>
-  <si>
-    <t>69,36%</t>
-  </si>
-  <si>
-    <t>64,26%</t>
-  </si>
-  <si>
-    <t>73,97%</t>
-  </si>
-  <si>
-    <t>65,43%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
+    <t>60,91%</t>
+  </si>
+  <si>
+    <t>55,36%</t>
+  </si>
+  <si>
+    <t>66,74%</t>
+  </si>
+  <si>
+    <t>69,25%</t>
+  </si>
+  <si>
+    <t>64,09%</t>
+  </si>
+  <si>
+    <t>73,85%</t>
+  </si>
+  <si>
+    <t>64,97%</t>
+  </si>
+  <si>
+    <t>60,95%</t>
+  </si>
+  <si>
+    <t>69,0%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
   </si>
   <si>
     <t>0,12%</t>
   </si>
   <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>56,87%</t>
-  </si>
-  <si>
-    <t>65,91%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
-  </si>
-  <si>
-    <t>69,0%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>68,62%</t>
-  </si>
-  <si>
-    <t>64,85%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>43,13%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
+    <t>61,02%</t>
+  </si>
+  <si>
+    <t>56,34%</t>
+  </si>
+  <si>
+    <t>65,65%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>64,59%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
   </si>
   <si>
     <t>0,11%</t>
   </si>
   <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>50,98%</t>
-  </si>
-  <si>
-    <t>43,05%</t>
-  </si>
-  <si>
-    <t>39,99%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>46,76%</t>
-  </si>
-  <si>
-    <t>62,52%</t>
-  </si>
-  <si>
-    <t>49,02%</t>
-  </si>
-  <si>
-    <t>67,65%</t>
-  </si>
-  <si>
-    <t>56,95%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>60,01%</t>
-  </si>
-  <si>
-    <t>59,72%</t>
-  </si>
-  <si>
-    <t>53,24%</t>
-  </si>
-  <si>
-    <t>62,53%</t>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>46,34%</t>
+  </si>
+  <si>
+    <t>47,65%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>67,54%</t>
+  </si>
+  <si>
+    <t>48,91%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>67,37%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>53,66%</t>
+  </si>
+  <si>
+    <t>59,8%</t>
+  </si>
+  <si>
+    <t>52,35%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>62,15%</t>
   </si>
   <si>
     <t>0,04%</t>
@@ -1277,58 +1301,58 @@
     <t>0,02%</t>
   </si>
   <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>52,86%</t>
-  </si>
-  <si>
-    <t>56,67%</t>
-  </si>
-  <si>
-    <t>54,71%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>56,2%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>47,14%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
+    <t>52,85%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>63,18%</t>
+  </si>
+  <si>
+    <t>57,11%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>55,04%</t>
+  </si>
+  <si>
+    <t>51,95%</t>
+  </si>
+  <si>
+    <t>61,98%</t>
+  </si>
+  <si>
+    <t>47,15%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>46,77%</t>
+  </si>
+  <si>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>48,05%</t>
   </si>
 </sst>
 </file>
@@ -1740,7 +1764,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3291942F-DCD8-4664-9DF7-F995EBB3672C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7637ECC-6823-4462-810B-16F6ED8A9285}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3509,7 +3533,7 @@
         <v>3214</v>
       </c>
       <c r="D36" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>11</v>
@@ -3524,7 +3548,7 @@
         <v>3297</v>
       </c>
       <c r="I36" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J36" s="7" t="s">
         <v>11</v>
@@ -3539,7 +3563,7 @@
         <v>6511</v>
       </c>
       <c r="N36" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O36" s="7" t="s">
         <v>11</v>
@@ -3662,7 +3686,7 @@
         <v>3214</v>
       </c>
       <c r="D39" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>13</v>
@@ -3677,7 +3701,7 @@
         <v>3297</v>
       </c>
       <c r="I39" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>13</v>
@@ -3692,7 +3716,7 @@
         <v>6511</v>
       </c>
       <c r="N39" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>13</v>
@@ -3730,7 +3754,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5DF1DFD-0987-4DBF-8E6A-9A595D264A91}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16A62C09-E7CA-4BAE-8E66-BF83E9146C64}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3848,43 +3872,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="D4" s="7">
+        <v>294738</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>72</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="I4" s="7">
+        <v>287245</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>538</v>
+      </c>
+      <c r="N4" s="7">
+        <v>581983</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3895,41 +3925,47 @@
       <c r="C5" s="7">
         <v>0</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
-      <c r="I5" s="7"/>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
-      <c r="N5" s="7"/>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3940,41 +3976,47 @@
       <c r="C6" s="7">
         <v>0</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
-      <c r="I6" s="7"/>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
-      <c r="N6" s="7"/>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3983,43 +4025,49 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="D7" s="7">
+        <v>294738</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="I7" s="7">
+        <v>287245</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>538</v>
+      </c>
+      <c r="N7" s="7">
+        <v>581983</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4054,7 +4102,7 @@
         <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>13</v>
@@ -4108,7 +4156,7 @@
         <v>18</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -4159,7 +4207,7 @@
         <v>18</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -4245,7 +4293,7 @@
         <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>13</v>
@@ -4260,7 +4308,7 @@
         <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>13</v>
@@ -4299,7 +4347,7 @@
         <v>18</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4314,7 +4362,7 @@
         <v>18</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -4350,7 +4398,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4365,7 +4413,7 @@
         <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -4442,46 +4490,46 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>626</v>
+        <v>344</v>
       </c>
       <c r="D16" s="7">
-        <v>668720</v>
+        <v>373982</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H16" s="7">
-        <v>627</v>
+        <v>371</v>
       </c>
       <c r="I16" s="7">
-        <v>676196</v>
+        <v>388951</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M16" s="7">
-        <v>1253</v>
+        <v>715</v>
       </c>
       <c r="N16" s="7">
-        <v>1344916</v>
+        <v>762933</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -4505,7 +4553,7 @@
         <v>18</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -4520,7 +4568,7 @@
         <v>18</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -4535,7 +4583,7 @@
         <v>18</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4556,7 +4604,7 @@
         <v>18</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -4571,7 +4619,7 @@
         <v>18</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -4586,7 +4634,7 @@
         <v>18</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4595,10 +4643,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>626</v>
+        <v>344</v>
       </c>
       <c r="D19" s="7">
-        <v>668720</v>
+        <v>373982</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>13</v>
@@ -4610,10 +4658,10 @@
         <v>13</v>
       </c>
       <c r="H19" s="7">
-        <v>627</v>
+        <v>371</v>
       </c>
       <c r="I19" s="7">
-        <v>676196</v>
+        <v>388951</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>13</v>
@@ -4625,10 +4673,10 @@
         <v>13</v>
       </c>
       <c r="M19" s="7">
-        <v>1253</v>
+        <v>715</v>
       </c>
       <c r="N19" s="7">
-        <v>1344916</v>
+        <v>762933</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>13</v>
@@ -4657,7 +4705,7 @@
         <v>11</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>13</v>
@@ -4672,7 +4720,7 @@
         <v>11</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>13</v>
@@ -4711,7 +4759,7 @@
         <v>18</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -4726,7 +4774,7 @@
         <v>18</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -4762,7 +4810,7 @@
         <v>18</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -4777,7 +4825,7 @@
         <v>18</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -4863,7 +4911,7 @@
         <v>11</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>13</v>
@@ -4917,7 +4965,7 @@
         <v>18</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -4968,7 +5016,7 @@
         <v>18</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5099,7 +5147,7 @@
         <v>11</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>13</v>
@@ -5153,7 +5201,7 @@
         <v>18</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5204,7 +5252,7 @@
         <v>18</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5275,7 +5323,7 @@
         <v>11</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>13</v>
@@ -5290,7 +5338,7 @@
         <v>11</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>13</v>
@@ -5329,7 +5377,7 @@
         <v>18</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -5344,7 +5392,7 @@
         <v>18</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -5380,7 +5428,7 @@
         <v>18</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -5395,7 +5443,7 @@
         <v>18</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -5696,7 +5744,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30BBB68A-BCCA-47B5-9168-FB3E99DA2A2B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED44009A-286D-4BAB-AB49-952BC838135C}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5713,7 +5761,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5841,7 +5889,7 @@
         <v>18</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5856,7 +5904,7 @@
         <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5871,13 +5919,13 @@
         <v>142502</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="H5" s="7">
         <v>148</v>
@@ -5886,13 +5934,13 @@
         <v>154321</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="M5" s="7">
         <v>279</v>
@@ -5901,13 +5949,13 @@
         <v>296823</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5922,13 +5970,13 @@
         <v>151259</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="H6" s="7">
         <v>129</v>
@@ -5937,13 +5985,13 @@
         <v>134382</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="M6" s="7">
         <v>264</v>
@@ -5952,13 +6000,13 @@
         <v>285641</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6032,7 +6080,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -6047,7 +6095,7 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -6077,13 +6125,13 @@
         <v>234827</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="H9" s="7">
         <v>276</v>
@@ -6092,13 +6140,13 @@
         <v>302287</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="M9" s="7">
         <v>496</v>
@@ -6107,13 +6155,13 @@
         <v>537114</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6128,13 +6176,13 @@
         <v>267748</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="H10" s="7">
         <v>208</v>
@@ -6143,13 +6191,13 @@
         <v>220797</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="M10" s="7">
         <v>463</v>
@@ -6158,13 +6206,13 @@
         <v>488545</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6253,7 +6301,7 @@
         <v>18</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -6268,7 +6316,7 @@
         <v>18</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6283,13 +6331,13 @@
         <v>136415</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="H13" s="7">
         <v>181</v>
@@ -6298,13 +6346,13 @@
         <v>186841</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="M13" s="7">
         <v>325</v>
@@ -6313,13 +6361,13 @@
         <v>323257</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6334,13 +6382,13 @@
         <v>182150</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="H14" s="7">
         <v>151</v>
@@ -6349,13 +6397,13 @@
         <v>149468</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="M14" s="7">
         <v>342</v>
@@ -6364,13 +6412,13 @@
         <v>331617</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6444,7 +6492,7 @@
         <v>18</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -6474,7 +6522,7 @@
         <v>18</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6489,13 +6537,13 @@
         <v>204219</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="H17" s="7">
         <v>218</v>
@@ -6504,13 +6552,13 @@
         <v>238574</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="M17" s="7">
         <v>415</v>
@@ -6519,13 +6567,13 @@
         <v>442793</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6540,13 +6588,13 @@
         <v>165745</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="H18" s="7">
         <v>140</v>
@@ -6555,13 +6603,13 @@
         <v>148709</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="M18" s="7">
         <v>297</v>
@@ -6570,13 +6618,13 @@
         <v>314454</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6650,7 +6698,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -6665,7 +6713,7 @@
         <v>18</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -6680,7 +6728,7 @@
         <v>18</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6695,13 +6743,13 @@
         <v>97045</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="H21" s="7">
         <v>120</v>
@@ -6710,13 +6758,13 @@
         <v>119285</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="M21" s="7">
         <v>219</v>
@@ -6725,13 +6773,13 @@
         <v>216330</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6746,13 +6794,13 @@
         <v>114176</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="H22" s="7">
         <v>103</v>
@@ -6761,13 +6809,13 @@
         <v>99302</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="M22" s="7">
         <v>216</v>
@@ -6776,13 +6824,13 @@
         <v>213478</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6856,7 +6904,7 @@
         <v>18</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -6871,7 +6919,7 @@
         <v>18</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -6901,13 +6949,13 @@
         <v>138188</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="H25" s="7">
         <v>156</v>
@@ -6916,13 +6964,13 @@
         <v>163253</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="M25" s="7">
         <v>293</v>
@@ -6931,13 +6979,13 @@
         <v>301441</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6952,13 +7000,13 @@
         <v>124935</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="H26" s="7">
         <v>107</v>
@@ -6967,13 +7015,13 @@
         <v>109862</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="M26" s="7">
         <v>229</v>
@@ -6982,13 +7030,13 @@
         <v>234797</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7062,7 +7110,7 @@
         <v>18</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -7107,13 +7155,13 @@
         <v>233139</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="H29" s="7">
         <v>310</v>
@@ -7122,13 +7170,13 @@
         <v>339779</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="M29" s="7">
         <v>518</v>
@@ -7137,13 +7185,13 @@
         <v>572919</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7158,13 +7206,13 @@
         <v>423419</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="H30" s="7">
         <v>336</v>
@@ -7173,13 +7221,13 @@
         <v>351515</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="M30" s="7">
         <v>708</v>
@@ -7188,13 +7236,13 @@
         <v>774933</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7283,7 +7331,7 @@
         <v>18</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -7313,13 +7361,13 @@
         <v>392416</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="H33" s="7">
         <v>469</v>
@@ -7328,13 +7376,13 @@
         <v>520423</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="M33" s="7">
         <v>852</v>
@@ -7343,13 +7391,13 @@
         <v>912838</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7364,13 +7412,13 @@
         <v>386167</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="H34" s="7">
         <v>286</v>
@@ -7379,13 +7427,13 @@
         <v>305744</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="M34" s="7">
         <v>653</v>
@@ -7394,13 +7442,13 @@
         <v>691912</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7519,13 +7567,13 @@
         <v>1578751</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="H37" s="7">
         <v>1878</v>
@@ -7534,13 +7582,13 @@
         <v>2024764</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="M37" s="7">
         <v>3397</v>
@@ -7549,13 +7597,13 @@
         <v>3603515</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7570,13 +7618,13 @@
         <v>1815599</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="H38" s="7">
         <v>1460</v>
@@ -7585,13 +7633,13 @@
         <v>1519778</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="M38" s="7">
         <v>3172</v>
@@ -7600,13 +7648,13 @@
         <v>3335377</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7686,7 +7734,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8B977E8-A226-4975-B109-B217FE6D5637}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F82AD21-CEA1-4671-86F1-48AE4047E4B2}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7703,7 +7751,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7816,7 +7864,7 @@
         <v>18</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -7846,7 +7894,7 @@
         <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7858,46 +7906,46 @@
         <v>219</v>
       </c>
       <c r="D5" s="7">
-        <v>175351</v>
+        <v>207212</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="H5" s="7">
         <v>392</v>
       </c>
       <c r="I5" s="7">
-        <v>194832</v>
+        <v>206071</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="M5" s="7">
         <v>611</v>
       </c>
       <c r="N5" s="7">
-        <v>370183</v>
+        <v>413283</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7909,46 +7957,46 @@
         <v>111</v>
       </c>
       <c r="D6" s="7">
-        <v>83883</v>
+        <v>102949</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="H6" s="7">
         <v>146</v>
       </c>
       <c r="I6" s="7">
-        <v>76571</v>
+        <v>83564</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="M6" s="7">
         <v>257</v>
       </c>
       <c r="N6" s="7">
-        <v>160453</v>
+        <v>186513</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7960,7 +8008,7 @@
         <v>330</v>
       </c>
       <c r="D7" s="7">
-        <v>259234</v>
+        <v>310161</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>13</v>
@@ -7975,7 +8023,7 @@
         <v>538</v>
       </c>
       <c r="I7" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>13</v>
@@ -7990,7 +8038,7 @@
         <v>868</v>
       </c>
       <c r="N7" s="7">
-        <v>530636</v>
+        <v>599796</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>13</v>
@@ -8037,7 +8085,7 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -8052,7 +8100,7 @@
         <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8064,46 +8112,46 @@
         <v>108</v>
       </c>
       <c r="D9" s="7">
-        <v>132180</v>
+        <v>128201</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="H9" s="7">
         <v>218</v>
       </c>
       <c r="I9" s="7">
-        <v>166808</v>
+        <v>155278</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="M9" s="7">
         <v>326</v>
       </c>
       <c r="N9" s="7">
-        <v>298988</v>
+        <v>283478</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8115,46 +8163,46 @@
         <v>274</v>
       </c>
       <c r="D10" s="7">
-        <v>387117</v>
+        <v>390189</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="H10" s="7">
         <v>496</v>
       </c>
       <c r="I10" s="7">
-        <v>385839</v>
+        <v>357931</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="M10" s="7">
         <v>770</v>
       </c>
       <c r="N10" s="7">
-        <v>772956</v>
+        <v>748120</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8166,7 +8214,7 @@
         <v>382</v>
       </c>
       <c r="D11" s="7">
-        <v>519297</v>
+        <v>518390</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>13</v>
@@ -8181,7 +8229,7 @@
         <v>714</v>
       </c>
       <c r="I11" s="7">
-        <v>552647</v>
+        <v>513209</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>13</v>
@@ -8196,7 +8244,7 @@
         <v>1096</v>
       </c>
       <c r="N11" s="7">
-        <v>1071944</v>
+        <v>1031598</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>13</v>
@@ -8258,7 +8306,7 @@
         <v>18</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8270,46 +8318,46 @@
         <v>252</v>
       </c>
       <c r="D13" s="7">
-        <v>211619</v>
+        <v>205440</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="H13" s="7">
         <v>385</v>
       </c>
       <c r="I13" s="7">
-        <v>257993</v>
+        <v>241186</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="M13" s="7">
         <v>637</v>
       </c>
       <c r="N13" s="7">
-        <v>469612</v>
+        <v>446627</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8321,46 +8369,46 @@
         <v>108</v>
       </c>
       <c r="D14" s="7">
-        <v>110621</v>
+        <v>110610</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="H14" s="7">
         <v>150</v>
       </c>
       <c r="I14" s="7">
-        <v>114316</v>
+        <v>107020</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="M14" s="7">
         <v>258</v>
       </c>
       <c r="N14" s="7">
-        <v>224937</v>
+        <v>217629</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8372,7 +8420,7 @@
         <v>360</v>
       </c>
       <c r="D15" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -8387,7 +8435,7 @@
         <v>535</v>
       </c>
       <c r="I15" s="7">
-        <v>372309</v>
+        <v>348206</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -8402,7 +8450,7 @@
         <v>895</v>
       </c>
       <c r="N15" s="7">
-        <v>694549</v>
+        <v>664256</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -8434,7 +8482,7 @@
         <v>18</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -8464,7 +8512,7 @@
         <v>18</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8476,46 +8524,46 @@
         <v>160</v>
       </c>
       <c r="D17" s="7">
-        <v>168098</v>
+        <v>161350</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="H17" s="7">
         <v>334</v>
       </c>
       <c r="I17" s="7">
-        <v>217784</v>
+        <v>200879</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="M17" s="7">
         <v>494</v>
       </c>
       <c r="N17" s="7">
-        <v>385883</v>
+        <v>362229</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8527,46 +8575,46 @@
         <v>132</v>
       </c>
       <c r="D18" s="7">
-        <v>154142</v>
+        <v>151207</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="H18" s="7">
         <v>263</v>
       </c>
       <c r="I18" s="7">
-        <v>209662</v>
+        <v>273801</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="M18" s="7">
         <v>395</v>
       </c>
       <c r="N18" s="7">
-        <v>363803</v>
+        <v>425008</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8578,7 +8626,7 @@
         <v>292</v>
       </c>
       <c r="D19" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>13</v>
@@ -8593,7 +8641,7 @@
         <v>597</v>
       </c>
       <c r="I19" s="7">
-        <v>427446</v>
+        <v>474680</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>13</v>
@@ -8608,7 +8656,7 @@
         <v>889</v>
       </c>
       <c r="N19" s="7">
-        <v>749686</v>
+        <v>787237</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>13</v>
@@ -8640,7 +8688,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -8655,7 +8703,7 @@
         <v>18</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -8670,7 +8718,7 @@
         <v>18</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8682,46 +8730,46 @@
         <v>172</v>
       </c>
       <c r="D21" s="7">
-        <v>116524</v>
+        <v>106197</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>106</v>
+        <v>343</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="H21" s="7">
         <v>356</v>
       </c>
       <c r="I21" s="7">
-        <v>157050</v>
+        <v>142384</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="M21" s="7">
         <v>528</v>
       </c>
       <c r="N21" s="7">
-        <v>273574</v>
+        <v>248581</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8733,46 +8781,46 @@
         <v>107</v>
       </c>
       <c r="D22" s="7">
-        <v>80224</v>
+        <v>72545</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>96</v>
+        <v>353</v>
       </c>
       <c r="H22" s="7">
         <v>136</v>
       </c>
       <c r="I22" s="7">
-        <v>74853</v>
+        <v>66272</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="M22" s="7">
         <v>243</v>
       </c>
       <c r="N22" s="7">
-        <v>155077</v>
+        <v>138817</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8784,7 +8832,7 @@
         <v>279</v>
       </c>
       <c r="D23" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>13</v>
@@ -8799,7 +8847,7 @@
         <v>492</v>
       </c>
       <c r="I23" s="7">
-        <v>231903</v>
+        <v>208656</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>13</v>
@@ -8814,7 +8862,7 @@
         <v>771</v>
       </c>
       <c r="N23" s="7">
-        <v>428651</v>
+        <v>387398</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>13</v>
@@ -8846,7 +8894,7 @@
         <v>18</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>351</v>
+        <v>84</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -8861,7 +8909,7 @@
         <v>18</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -8876,7 +8924,7 @@
         <v>18</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8888,46 +8936,46 @@
         <v>256</v>
       </c>
       <c r="D25" s="7">
-        <v>170583</v>
+        <v>164224</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="H25" s="7">
         <v>338</v>
       </c>
       <c r="I25" s="7">
-        <v>190671</v>
+        <v>177547</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="M25" s="7">
         <v>594</v>
       </c>
       <c r="N25" s="7">
-        <v>361254</v>
+        <v>341772</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8939,46 +8987,46 @@
         <v>115</v>
       </c>
       <c r="D26" s="7">
-        <v>106640</v>
+        <v>105412</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="H26" s="7">
         <v>121</v>
       </c>
       <c r="I26" s="7">
-        <v>84220</v>
+        <v>78828</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="M26" s="7">
         <v>236</v>
       </c>
       <c r="N26" s="7">
-        <v>190860</v>
+        <v>184239</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8990,7 +9038,7 @@
         <v>371</v>
       </c>
       <c r="D27" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>13</v>
@@ -9005,7 +9053,7 @@
         <v>459</v>
       </c>
       <c r="I27" s="7">
-        <v>274891</v>
+        <v>256375</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>13</v>
@@ -9020,7 +9068,7 @@
         <v>830</v>
       </c>
       <c r="N27" s="7">
-        <v>552114</v>
+        <v>526011</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>13</v>
@@ -9082,7 +9130,7 @@
         <v>18</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9094,46 +9142,46 @@
         <v>383</v>
       </c>
       <c r="D29" s="7">
-        <v>384841</v>
+        <v>379721</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="H29" s="7">
         <v>693</v>
       </c>
       <c r="I29" s="7">
-        <v>595266</v>
+        <v>654905</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="M29" s="7">
         <v>1076</v>
       </c>
       <c r="N29" s="7">
-        <v>980108</v>
+        <v>1034626</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9145,46 +9193,46 @@
         <v>214</v>
       </c>
       <c r="D30" s="7">
-        <v>240757</v>
+        <v>242524</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="H30" s="7">
         <v>264</v>
       </c>
       <c r="I30" s="7">
-        <v>207370</v>
+        <v>192908</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="M30" s="7">
         <v>478</v>
       </c>
       <c r="N30" s="7">
-        <v>448126</v>
+        <v>435433</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9196,7 +9244,7 @@
         <v>597</v>
       </c>
       <c r="D31" s="7">
-        <v>625598</v>
+        <v>622245</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>13</v>
@@ -9211,7 +9259,7 @@
         <v>957</v>
       </c>
       <c r="I31" s="7">
-        <v>802636</v>
+        <v>847813</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>13</v>
@@ -9226,7 +9274,7 @@
         <v>1554</v>
       </c>
       <c r="N31" s="7">
-        <v>1428234</v>
+        <v>1470059</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>13</v>
@@ -9258,7 +9306,7 @@
         <v>18</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -9273,7 +9321,7 @@
         <v>18</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -9288,7 +9336,7 @@
         <v>18</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9300,46 +9348,46 @@
         <v>298</v>
       </c>
       <c r="D33" s="7">
-        <v>322141</v>
+        <v>474478</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="H33" s="7">
         <v>495</v>
       </c>
       <c r="I33" s="7">
-        <v>373860</v>
+        <v>310003</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="M33" s="7">
         <v>793</v>
       </c>
       <c r="N33" s="7">
-        <v>696002</v>
+        <v>784481</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -9351,46 +9399,46 @@
         <v>464</v>
       </c>
       <c r="D34" s="7">
-        <v>537287</v>
+        <v>454242</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="H34" s="7">
         <v>567</v>
       </c>
       <c r="I34" s="7">
-        <v>494574</v>
+        <v>407728</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="M34" s="7">
         <v>1031</v>
       </c>
       <c r="N34" s="7">
-        <v>1031860</v>
+        <v>861971</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9402,7 +9450,7 @@
         <v>762</v>
       </c>
       <c r="D35" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>13</v>
@@ -9417,7 +9465,7 @@
         <v>1062</v>
       </c>
       <c r="I35" s="7">
-        <v>868434</v>
+        <v>717731</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>13</v>
@@ -9432,7 +9480,7 @@
         <v>1824</v>
       </c>
       <c r="N35" s="7">
-        <v>1727862</v>
+        <v>1646452</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>13</v>
@@ -9479,7 +9527,7 @@
         <v>18</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -9494,7 +9542,7 @@
         <v>18</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9506,46 +9554,46 @@
         <v>1848</v>
       </c>
       <c r="D37" s="7">
-        <v>1681338</v>
+        <v>1826823</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="H37" s="7">
         <v>3211</v>
       </c>
       <c r="I37" s="7">
-        <v>2154264</v>
+        <v>2088253</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="M37" s="7">
         <v>5059</v>
       </c>
       <c r="N37" s="7">
-        <v>3835602</v>
+        <v>3915075</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9557,46 +9605,46 @@
         <v>1525</v>
       </c>
       <c r="D38" s="7">
-        <v>1700670</v>
+        <v>1629678</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="H38" s="7">
         <v>2143</v>
       </c>
       <c r="I38" s="7">
-        <v>1647404</v>
+        <v>1568052</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="M38" s="7">
         <v>3668</v>
       </c>
       <c r="N38" s="7">
-        <v>3348074</v>
+        <v>3197731</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9608,7 +9656,7 @@
         <v>3373</v>
       </c>
       <c r="D39" s="7">
-        <v>3382008</v>
+        <v>3456501</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>13</v>
@@ -9623,7 +9671,7 @@
         <v>5354</v>
       </c>
       <c r="I39" s="7">
-        <v>3801668</v>
+        <v>3656305</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>13</v>
@@ -9638,7 +9686,7 @@
         <v>8727</v>
       </c>
       <c r="N39" s="7">
-        <v>7183676</v>
+        <v>7112806</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>13</v>
